--- a/scripts/Coordinates.xlsx
+++ b/scripts/Coordinates.xlsx
@@ -31,8 +31,7 @@
     <t>Height</t>
   </si>
   <si>
-    <t>OpenCV Name
-(x y width height)</t>
+    <t>OpenCV Name(x y width height)</t>
   </si>
   <si>
     <t>Notes</t>
